--- a/medicine/Hématologie/Myéloïde/Myéloïde.xlsx
+++ b/medicine/Hématologie/Myéloïde/Myéloïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My%C3%A9lo%C3%AFde</t>
+          <t>Myéloïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme myéloïde renvoie à une substance qui prend naissance dans la moelle osseuse, ou qui ressemble au matériel de cette moelle.
 Quand on décrit l'hématopoïèse, on utilise souvent les termes  « lymphoïde » et « myéloïde » pour établir une distinction entre les cellules issues de la moelle et dont le devenir est lymphocytaire ou non. On rencontre souvent cette terminologie en hématologie, en particulier dans la classification des leucémies.
